--- a/VMA_IT_SUPPORT_INVTEK.xlsx
+++ b/VMA_IT_SUPPORT_INVTEK.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="8_{60C79C28-7C2F-49BE-BC96-921695B17A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEF3DA9C-2DB2-4C82-8CD0-39035A675CEF}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{F004CB60-F9A9-4AB5-B2CF-F580B6A8497D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F004CB60-F9A9-4AB5-B2CF-F580B6A8497D}"/>
   </bookViews>
   <sheets>
     <sheet name="MAPA" sheetId="1" r:id="rId1"/>
@@ -356,21 +356,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -380,13 +379,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -468,10 +464,14 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -509,7 +509,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -615,7 +615,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -757,7 +757,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -765,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAEAB58-C41A-42A0-9697-59FE43EAC7D2}">
-  <dimension ref="B3:I132"/>
+  <dimension ref="B3:I131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70:I72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -778,7 +778,7 @@
     <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5546875" customWidth="1"/>
     <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -803,28 +803,28 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -832,7 +832,7 @@
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -841,7 +841,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="7"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="1" t="s">
         <v>39</v>
       </c>
@@ -850,18 +850,18 @@
       <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>29</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -872,18 +872,18 @@
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="1" t="s">
         <v>31</v>
       </c>
@@ -892,37 +892,37 @@
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>1</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
-      <c r="C13" s="6"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -937,7 +937,7 @@
       <c r="G14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -948,7 +948,7 @@
       <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -963,7 +963,7 @@
       <c r="G15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="1" t="s">
         <v>37</v>
       </c>
@@ -972,7 +972,7 @@
       <c r="B16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -987,7 +987,7 @@
       <c r="G16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="1" t="s">
         <v>37</v>
       </c>
@@ -996,7 +996,7 @@
       <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1011,7 +1011,7 @@
       <c r="G17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="1" t="s">
         <v>37</v>
       </c>
@@ -1020,7 +1020,7 @@
       <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1035,7 +1035,7 @@
       <c r="G18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="7"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="1" t="s">
         <v>37</v>
       </c>
@@ -1044,7 +1044,7 @@
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1059,7 +1059,7 @@
       <c r="G19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="7"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="1" t="s">
         <v>37</v>
       </c>
@@ -1068,7 +1068,7 @@
       <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1083,7 +1083,7 @@
       <c r="G20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="7"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="1" t="s">
         <v>37</v>
       </c>
@@ -1092,7 +1092,7 @@
       <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1107,7 +1107,7 @@
       <c r="G21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="1" t="s">
         <v>37</v>
       </c>
@@ -1116,7 +1116,7 @@
       <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1131,7 +1131,7 @@
       <c r="G22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="H22" s="6"/>
       <c r="I22" s="1" t="s">
         <v>37</v>
       </c>
@@ -1140,7 +1140,7 @@
       <c r="B23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1155,7 +1155,7 @@
       <c r="G23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="7"/>
+      <c r="H23" s="6"/>
       <c r="I23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1164,7 +1164,7 @@
       <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1179,26 +1179,26 @@
       <c r="G24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="7"/>
+      <c r="H24" s="6"/>
       <c r="I24" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
-      <c r="C25" s="6"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="7"/>
+      <c r="H25" s="6"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1207,37 +1207,37 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="7"/>
+      <c r="H26" s="6"/>
       <c r="I26" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="7"/>
+      <c r="H27" s="6"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>3</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="6" t="s">
         <v>29</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -1248,18 +1248,18 @@
       <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>3</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="7"/>
+      <c r="H29" s="6"/>
       <c r="I29" s="1" t="s">
         <v>31</v>
       </c>
@@ -1268,48 +1268,48 @@
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>3</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H30" s="7"/>
+      <c r="H30" s="6"/>
       <c r="I30" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
-      <c r="C31" s="6"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="7"/>
+      <c r="H31" s="6"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>4</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
       <c r="F32" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="6" t="s">
         <v>29</v>
       </c>
       <c r="I32" s="1" t="s">
@@ -1320,18 +1320,18 @@
       <c r="B33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>4</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
       <c r="F33" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H33" s="7"/>
+      <c r="H33" s="6"/>
       <c r="I33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1340,18 +1340,18 @@
       <c r="B34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>4</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
       <c r="F34" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H34" s="7"/>
+      <c r="H34" s="6"/>
       <c r="I34" s="1" t="s">
         <v>31</v>
       </c>
@@ -1360,37 +1360,37 @@
       <c r="B35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>4</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
       <c r="F35" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H35" s="7"/>
+      <c r="H35" s="6"/>
       <c r="I35" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
-      <c r="C36" s="6"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="7"/>
+      <c r="H36" s="6"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -1405,7 +1405,7 @@
       <c r="G37" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="6" t="s">
         <v>29</v>
       </c>
       <c r="I37" s="1" t="s">
@@ -1416,7 +1416,7 @@
       <c r="B38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>5</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -1431,7 +1431,7 @@
       <c r="G38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H38" s="7"/>
+      <c r="H38" s="6"/>
       <c r="I38" s="1" t="s">
         <v>56</v>
       </c>
@@ -1440,7 +1440,7 @@
       <c r="B39" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>5</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -1455,7 +1455,7 @@
       <c r="G39" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H39" s="7"/>
+      <c r="H39" s="6"/>
       <c r="I39" s="1" t="s">
         <v>56</v>
       </c>
@@ -1464,7 +1464,7 @@
       <c r="B40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>5</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -1479,7 +1479,7 @@
       <c r="G40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H40" s="7"/>
+      <c r="H40" s="6"/>
       <c r="I40" s="1" t="s">
         <v>56</v>
       </c>
@@ -1488,7 +1488,7 @@
       <c r="B41" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>5</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -1503,7 +1503,7 @@
       <c r="G41" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="6" t="s">
         <v>29</v>
       </c>
       <c r="I41" s="1" t="s">
@@ -1514,7 +1514,7 @@
       <c r="B42" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>5</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -1529,7 +1529,7 @@
       <c r="G42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H42" s="7"/>
+      <c r="H42" s="6"/>
       <c r="I42" s="1" t="s">
         <v>56</v>
       </c>
@@ -1538,7 +1538,7 @@
       <c r="B43" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>5</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -1553,7 +1553,7 @@
       <c r="G43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H43" s="7"/>
+      <c r="H43" s="6"/>
       <c r="I43" s="1" t="s">
         <v>56</v>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="B44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>5</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -1577,7 +1577,7 @@
       <c r="G44" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H44" s="7"/>
+      <c r="H44" s="6"/>
       <c r="I44" s="1" t="s">
         <v>56</v>
       </c>
@@ -1586,7 +1586,7 @@
       <c r="B45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>5</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -1601,7 +1601,7 @@
       <c r="G45" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H45" s="6" t="s">
         <v>29</v>
       </c>
       <c r="I45" s="1" t="s">
@@ -1612,7 +1612,7 @@
       <c r="B46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>5</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -1627,7 +1627,7 @@
       <c r="G46" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="7"/>
+      <c r="H46" s="6"/>
       <c r="I46" s="1" t="s">
         <v>56</v>
       </c>
@@ -1636,7 +1636,7 @@
       <c r="B47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <v>5</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -1651,7 +1651,7 @@
       <c r="G47" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H47" s="7"/>
+      <c r="H47" s="6"/>
       <c r="I47" s="1" t="s">
         <v>56</v>
       </c>
@@ -1660,7 +1660,7 @@
       <c r="B48" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>5</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -1675,7 +1675,7 @@
       <c r="G48" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="6" t="s">
         <v>29</v>
       </c>
       <c r="I48" s="1" t="s">
@@ -1686,7 +1686,7 @@
       <c r="B49" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>5</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -1701,7 +1701,7 @@
       <c r="G49" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H49" s="7"/>
+      <c r="H49" s="6"/>
       <c r="I49" s="1" t="s">
         <v>56</v>
       </c>
@@ -1710,7 +1710,7 @@
       <c r="B50" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <v>5</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -1725,7 +1725,7 @@
       <c r="G50" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H50" s="7"/>
+      <c r="H50" s="6"/>
       <c r="I50" s="1" t="s">
         <v>56</v>
       </c>
@@ -1734,7 +1734,7 @@
       <c r="B51" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="5">
         <v>5</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -1749,37 +1749,37 @@
       <c r="G51" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H51" s="7"/>
+      <c r="H51" s="6"/>
       <c r="I51" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
-      <c r="C52" s="6"/>
+      <c r="C52" s="5"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="7"/>
+      <c r="H52" s="6"/>
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="5">
         <v>6</v>
       </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
       <c r="F53" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H53" s="6" t="s">
         <v>29</v>
       </c>
       <c r="I53" s="1" t="s">
@@ -1790,18 +1790,18 @@
       <c r="B54" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="5">
         <v>6</v>
       </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
       <c r="F54" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H54" s="7"/>
+      <c r="H54" s="6"/>
       <c r="I54" s="1" t="s">
         <v>56</v>
       </c>
@@ -1810,37 +1810,37 @@
       <c r="B55" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="5">
         <v>6</v>
       </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
       <c r="F55" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H55" s="7"/>
+      <c r="H55" s="6"/>
       <c r="I55" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
-      <c r="C56" s="6"/>
+      <c r="C56" s="5"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="7"/>
+      <c r="H56" s="6"/>
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="5">
         <v>7</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -1855,7 +1855,7 @@
       <c r="G57" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="H57" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I57" s="1" t="s">
@@ -1866,7 +1866,7 @@
       <c r="B58" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="5">
         <v>7</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -1881,7 +1881,7 @@
       <c r="G58" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H58" s="7"/>
+      <c r="H58" s="6"/>
       <c r="I58" s="1" t="s">
         <v>68</v>
       </c>
@@ -1890,7 +1890,7 @@
       <c r="B59" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="5">
         <v>7</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -1905,26 +1905,26 @@
       <c r="G59" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H59" s="7"/>
+      <c r="H59" s="6"/>
       <c r="I59" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
-      <c r="C60" s="6"/>
+      <c r="C60" s="5"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="7"/>
+      <c r="H60" s="6"/>
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="5">
         <v>8</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -1939,7 +1939,7 @@
       <c r="G61" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H61" s="7" t="s">
+      <c r="H61" s="6" t="s">
         <v>29</v>
       </c>
       <c r="I61" s="1" t="s">
@@ -1950,7 +1950,7 @@
       <c r="B62" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="5">
         <v>8</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -1965,7 +1965,7 @@
       <c r="G62" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H62" s="7"/>
+      <c r="H62" s="6"/>
       <c r="I62" s="1" t="s">
         <v>31</v>
       </c>
@@ -1974,7 +1974,7 @@
       <c r="B63" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="5">
         <v>8</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -1989,7 +1989,7 @@
       <c r="G63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H63" s="7"/>
+      <c r="H63" s="6"/>
       <c r="I63" s="1" t="s">
         <v>31</v>
       </c>
@@ -1998,7 +1998,7 @@
       <c r="B64" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="5">
         <v>8</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -2013,7 +2013,7 @@
       <c r="G64" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H64" s="7"/>
+      <c r="H64" s="6"/>
       <c r="I64" s="1" t="s">
         <v>31</v>
       </c>
@@ -2022,7 +2022,7 @@
       <c r="B65" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="5">
         <v>8</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -2037,97 +2037,97 @@
       <c r="G65" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H65" s="7"/>
+      <c r="H65" s="6"/>
       <c r="I65" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" s="1"/>
-      <c r="C66" s="6"/>
+      <c r="C66" s="5"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="7"/>
+      <c r="H66" s="6"/>
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C67" s="15">
+      <c r="C67" s="13">
         <v>9</v>
       </c>
-      <c r="D67" s="14" t="s">
+      <c r="D67" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="E67" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F67" s="14" t="s">
+      <c r="F67" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G67" s="14" t="s">
+      <c r="G67" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H67" s="16" t="s">
+      <c r="H67" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I67" s="14" t="s">
+      <c r="I67" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C68" s="15">
+      <c r="C68" s="13">
         <v>9</v>
       </c>
-      <c r="D68" s="14" t="s">
+      <c r="D68" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="E68" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F68" s="14" t="s">
+      <c r="F68" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G68" s="14" t="s">
+      <c r="G68" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H68" s="16"/>
-      <c r="I68" s="14" t="s">
+      <c r="H68" s="14"/>
+      <c r="I68" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69" s="1"/>
-      <c r="C69" s="6"/>
+      <c r="C69" s="5"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="7"/>
+      <c r="H69" s="6"/>
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="5">
         <v>10</v>
       </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
       <c r="F70" s="1" t="s">
         <v>75</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H70" s="7" t="s">
+      <c r="H70" s="6" t="s">
         <v>29</v>
       </c>
       <c r="I70" s="1" t="s">
@@ -2138,18 +2138,18 @@
       <c r="B71" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="5">
         <v>10</v>
       </c>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
       <c r="F71" s="1" t="s">
         <v>75</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H71" s="7"/>
+      <c r="H71" s="6"/>
       <c r="I71" s="1" t="s">
         <v>56</v>
       </c>
@@ -2158,495 +2158,495 @@
       <c r="B72" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="5">
         <v>10</v>
       </c>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
       <c r="F72" s="1" t="s">
         <v>75</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H72" s="7"/>
+      <c r="H72" s="6"/>
       <c r="I72" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B73" s="1"/>
-      <c r="C73" s="6"/>
+      <c r="C73" s="5"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="7"/>
+      <c r="H73" s="6"/>
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B74" s="1"/>
-      <c r="C74" s="6"/>
+      <c r="C74" s="5"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-      <c r="H74" s="7"/>
+      <c r="H74" s="6"/>
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B75" s="1"/>
-      <c r="C75" s="6"/>
+      <c r="C75" s="5"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
-      <c r="H75" s="7"/>
+      <c r="H75" s="6"/>
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B76" s="1"/>
-      <c r="C76" s="6"/>
+      <c r="C76" s="5"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-      <c r="H76" s="7"/>
+      <c r="H76" s="6"/>
       <c r="I76" s="1"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B77" s="1"/>
-      <c r="C77" s="6"/>
+      <c r="C77" s="5"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-      <c r="H77" s="7"/>
+      <c r="H77" s="6"/>
       <c r="I77" s="1"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B78" s="1"/>
-      <c r="C78" s="6"/>
+      <c r="C78" s="5"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="7"/>
+      <c r="H78" s="6"/>
       <c r="I78" s="1"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B79" s="1"/>
-      <c r="C79" s="6"/>
+      <c r="C79" s="5"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
-      <c r="H79" s="7"/>
+      <c r="H79" s="6"/>
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B80" s="1"/>
-      <c r="C80" s="6"/>
+      <c r="C80" s="5"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-      <c r="H80" s="7"/>
+      <c r="H80" s="6"/>
       <c r="I80" s="1"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" s="1"/>
-      <c r="C81" s="6"/>
+      <c r="C81" s="5"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-      <c r="H81" s="7"/>
+      <c r="H81" s="6"/>
       <c r="I81" s="1"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" s="1"/>
-      <c r="C82" s="6"/>
+      <c r="C82" s="5"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-      <c r="H82" s="7"/>
+      <c r="H82" s="6"/>
       <c r="I82" s="1"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B83" s="1"/>
-      <c r="C83" s="6"/>
+      <c r="C83" s="5"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
-      <c r="H83" s="7"/>
+      <c r="H83" s="6"/>
       <c r="I83" s="1"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B84" s="1"/>
-      <c r="C84" s="6"/>
+      <c r="C84" s="5"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="7"/>
+      <c r="H84" s="6"/>
       <c r="I84" s="1"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B85" s="1"/>
-      <c r="C85" s="6"/>
+      <c r="C85" s="5"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-      <c r="H85" s="7"/>
+      <c r="H85" s="6"/>
       <c r="I85" s="1"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B86" s="1"/>
-      <c r="C86" s="6"/>
+      <c r="C86" s="5"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
-      <c r="H86" s="7"/>
+      <c r="H86" s="6"/>
       <c r="I86" s="1"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B87" s="1"/>
-      <c r="C87" s="6"/>
+      <c r="C87" s="5"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
-      <c r="H87" s="7"/>
+      <c r="H87" s="6"/>
       <c r="I87" s="1"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B88" s="1"/>
-      <c r="C88" s="6"/>
+      <c r="C88" s="5"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
-      <c r="H88" s="7"/>
+      <c r="H88" s="6"/>
       <c r="I88" s="1"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B89" s="1"/>
-      <c r="C89" s="6"/>
+      <c r="C89" s="5"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-      <c r="H89" s="7"/>
+      <c r="H89" s="6"/>
       <c r="I89" s="1"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B90" s="1"/>
-      <c r="C90" s="6"/>
+      <c r="C90" s="5"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-      <c r="H90" s="7"/>
+      <c r="H90" s="6"/>
       <c r="I90" s="1"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B91" s="1"/>
-      <c r="C91" s="6"/>
+      <c r="C91" s="5"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
-      <c r="H91" s="7"/>
+      <c r="H91" s="6"/>
       <c r="I91" s="1"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B92" s="1"/>
-      <c r="C92" s="6"/>
+      <c r="C92" s="5"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="H92" s="7"/>
+      <c r="H92" s="6"/>
       <c r="I92" s="1"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B93" s="1"/>
-      <c r="C93" s="6"/>
+      <c r="C93" s="5"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="H93" s="7"/>
+      <c r="H93" s="6"/>
       <c r="I93" s="1"/>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B94" s="1"/>
-      <c r="C94" s="6"/>
+      <c r="C94" s="5"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
-      <c r="H94" s="7"/>
+      <c r="H94" s="6"/>
       <c r="I94" s="1"/>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B95" s="1"/>
-      <c r="C95" s="6"/>
+      <c r="C95" s="5"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-      <c r="H95" s="7"/>
+      <c r="H95" s="6"/>
       <c r="I95" s="1"/>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B96" s="1"/>
-      <c r="C96" s="6"/>
+      <c r="C96" s="5"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-      <c r="H96" s="7"/>
+      <c r="H96" s="6"/>
       <c r="I96" s="1"/>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B97" s="1"/>
-      <c r="C97" s="6"/>
+      <c r="C97" s="5"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-      <c r="H97" s="7"/>
+      <c r="H97" s="6"/>
       <c r="I97" s="1"/>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B98" s="1"/>
-      <c r="C98" s="6"/>
+      <c r="C98" s="5"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-      <c r="H98" s="7"/>
+      <c r="H98" s="6"/>
       <c r="I98" s="1"/>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B99" s="1"/>
-      <c r="C99" s="6"/>
+      <c r="C99" s="5"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-      <c r="H99" s="7"/>
+      <c r="H99" s="6"/>
       <c r="I99" s="1"/>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B100" s="1"/>
-      <c r="C100" s="6"/>
+      <c r="C100" s="5"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
-      <c r="H100" s="7"/>
+      <c r="H100" s="6"/>
       <c r="I100" s="1"/>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B101" s="1"/>
-      <c r="C101" s="6"/>
+      <c r="C101" s="5"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
-      <c r="H101" s="7"/>
+      <c r="H101" s="6"/>
       <c r="I101" s="1"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B102" s="1"/>
-      <c r="C102" s="6"/>
+      <c r="C102" s="5"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
-      <c r="H102" s="7"/>
+      <c r="H102" s="6"/>
       <c r="I102" s="1"/>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B103" s="1"/>
-      <c r="C103" s="6"/>
+      <c r="C103" s="5"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
-      <c r="H103" s="7"/>
+      <c r="H103" s="6"/>
       <c r="I103" s="1"/>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B104" s="1"/>
-      <c r="C104" s="6"/>
+      <c r="C104" s="5"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
-      <c r="H104" s="7"/>
+      <c r="H104" s="6"/>
       <c r="I104" s="1"/>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B105" s="1"/>
-      <c r="C105" s="6"/>
+      <c r="C105" s="5"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
-      <c r="H105" s="7"/>
+      <c r="H105" s="6"/>
       <c r="I105" s="1"/>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B106" s="1"/>
-      <c r="C106" s="6"/>
+      <c r="C106" s="5"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
-      <c r="H106" s="7"/>
+      <c r="H106" s="6"/>
       <c r="I106" s="1"/>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B107" s="1"/>
-      <c r="C107" s="6"/>
+      <c r="C107" s="5"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
-      <c r="H107" s="7"/>
+      <c r="H107" s="6"/>
       <c r="I107" s="1"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B108" s="1"/>
-      <c r="C108" s="6"/>
+      <c r="C108" s="5"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
-      <c r="H108" s="7"/>
+      <c r="H108" s="6"/>
       <c r="I108" s="1"/>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B109" s="1"/>
-      <c r="C109" s="6"/>
+      <c r="C109" s="5"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
-      <c r="H109" s="7"/>
+      <c r="H109" s="6"/>
       <c r="I109" s="1"/>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B110" s="1"/>
-      <c r="C110" s="6"/>
+      <c r="C110" s="5"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
-      <c r="H110" s="7"/>
+      <c r="H110" s="6"/>
       <c r="I110" s="1"/>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B111" s="1"/>
-      <c r="C111" s="6"/>
+      <c r="C111" s="5"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
-      <c r="H111" s="7"/>
+      <c r="H111" s="6"/>
       <c r="I111" s="1"/>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B112" s="1"/>
-      <c r="C112" s="6"/>
+      <c r="C112" s="5"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
-      <c r="H112" s="7"/>
+      <c r="H112" s="6"/>
       <c r="I112" s="1"/>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B113" s="1"/>
-      <c r="C113" s="6"/>
+      <c r="C113" s="5"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
-      <c r="H113" s="7"/>
+      <c r="H113" s="6"/>
       <c r="I113" s="1"/>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B114" s="1"/>
-      <c r="C114" s="6"/>
+      <c r="C114" s="5"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
-      <c r="H114" s="7"/>
+      <c r="H114" s="6"/>
       <c r="I114" s="1"/>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B115" s="1"/>
-      <c r="C115" s="6"/>
+      <c r="C115" s="5"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
-      <c r="H115" s="7"/>
+      <c r="H115" s="6"/>
       <c r="I115" s="1"/>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B116" s="1"/>
-      <c r="C116" s="6"/>
+      <c r="C116" s="5"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
-      <c r="H116" s="7"/>
+      <c r="H116" s="6"/>
       <c r="I116" s="1"/>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B117" s="1"/>
-      <c r="C117" s="6"/>
+      <c r="C117" s="5"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
-      <c r="H117" s="7"/>
+      <c r="H117" s="6"/>
       <c r="I117" s="1"/>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B118" s="1"/>
-      <c r="C118" s="6"/>
+      <c r="C118" s="5"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
-      <c r="H118" s="7"/>
+      <c r="H118" s="6"/>
       <c r="I118" s="1"/>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B119" s="1"/>
-      <c r="C119" s="6"/>
+      <c r="C119" s="5"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
-      <c r="H119" s="7"/>
+      <c r="H119" s="6"/>
       <c r="I119" s="1"/>
     </row>
     <row r="120" spans="2:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="B120" s="2"/>
-      <c r="C120" s="6"/>
+      <c r="C120" s="5"/>
       <c r="D120" s="3" t="s">
         <v>4</v>
       </c>
@@ -2659,12 +2659,12 @@
       <c r="G120" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H120" s="11"/>
+      <c r="H120" s="10"/>
       <c r="I120" s="3"/>
     </row>
     <row r="121" spans="2:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="B121" s="2"/>
-      <c r="C121" s="6"/>
+      <c r="C121" s="5"/>
       <c r="D121" s="3" t="s">
         <v>4</v>
       </c>
@@ -2677,12 +2677,12 @@
       <c r="G121" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H121" s="12"/>
+      <c r="H121" s="11"/>
       <c r="I121" s="2"/>
     </row>
     <row r="122" spans="2:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="B122" s="2"/>
-      <c r="C122" s="6"/>
+      <c r="C122" s="5"/>
       <c r="D122" s="3" t="s">
         <v>4</v>
       </c>
@@ -2695,12 +2695,12 @@
       <c r="G122" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H122" s="12"/>
+      <c r="H122" s="11"/>
       <c r="I122" s="2"/>
     </row>
     <row r="123" spans="2:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="B123" s="2"/>
-      <c r="C123" s="6"/>
+      <c r="C123" s="5"/>
       <c r="D123" s="3" t="s">
         <v>4</v>
       </c>
@@ -2713,12 +2713,12 @@
       <c r="G123" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H123" s="12"/>
+      <c r="H123" s="11"/>
       <c r="I123" s="2"/>
     </row>
     <row r="124" spans="2:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="B124" s="2"/>
-      <c r="C124" s="6"/>
+      <c r="C124" s="5"/>
       <c r="D124" s="3" t="s">
         <v>4</v>
       </c>
@@ -2731,27 +2731,27 @@
       <c r="G124" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H124" s="12"/>
+      <c r="H124" s="11"/>
       <c r="I124" s="2"/>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B125" s="2"/>
-      <c r="C125" s="6"/>
+      <c r="C125" s="5"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
-      <c r="H125" s="12"/>
+      <c r="H125" s="11"/>
       <c r="I125" s="2"/>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B126" s="2"/>
-      <c r="C126" s="6"/>
+      <c r="C126" s="5"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
-      <c r="H126" s="12"/>
+      <c r="H126" s="11"/>
       <c r="I126" s="2"/>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.2">
@@ -2761,7 +2761,7 @@
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
-      <c r="H127" s="12"/>
+      <c r="H127" s="11"/>
       <c r="I127" s="2"/>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.2">
@@ -2771,7 +2771,7 @@
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
-      <c r="H128" s="12"/>
+      <c r="H128" s="11"/>
       <c r="I128" s="2"/>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.2">
@@ -2781,7 +2781,7 @@
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
-      <c r="H129" s="12"/>
+      <c r="H129" s="11"/>
       <c r="I129" s="2"/>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.2">
@@ -2791,7 +2791,7 @@
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
-      <c r="H130" s="12"/>
+      <c r="H130" s="11"/>
       <c r="I130" s="2"/>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.2">
@@ -2801,18 +2801,8 @@
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
-      <c r="H131" s="12"/>
+      <c r="H131" s="11"/>
       <c r="I131" s="2"/>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="13"/>
-      <c r="I132" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
